--- a/examples/tidy-data_spreadsheets/tidy-data_multi-tables.xlsx
+++ b/examples/tidy-data_spreadsheets/tidy-data_multi-tables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biodiversityaq/Desktop/data-fairy/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biodiversityaq/Desktop/data-fairy/examples/tidy-data_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D5D40F-DEE3-C146-9CA1-1C07E0115116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AACDBAF-DC1C-3D48-AC2D-8C0B988051AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28880" yWindow="4060" windowWidth="28040" windowHeight="16940" xr2:uid="{F2732A7F-8712-034F-9C30-BF3608C6E0E7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>fieldNumber</t>
   </si>
@@ -90,19 +90,16 @@
     <t>Amphipod trap</t>
   </si>
   <si>
-    <t>Species1</t>
-  </si>
-  <si>
     <t>Avg</t>
   </si>
   <si>
-    <t>Species 1</t>
-  </si>
-  <si>
-    <t>Species 2</t>
-  </si>
-  <si>
     <t>Std dev</t>
+  </si>
+  <si>
+    <t>Abyssorchomene charcoti</t>
+  </si>
+  <si>
+    <t>Charcotia obesa</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +536,8 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
@@ -560,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -610,14 +608,14 @@
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>0</v>
@@ -632,7 +630,7 @@
         <v>6</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
